--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>main_category</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>subcategory</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>average_rating</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>num_ratings</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stock_level</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>release_date</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
         </is>
       </c>
     </row>
@@ -471,27 +516,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SmartLife Books 1</t>
+          <t>ReadMore Non-Fiction 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TravelGear</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>527.87</v>
+          <t>Non-Fiction</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ReadMore</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
+          <t>[np.str_('Books'), np.str_('Non-Fiction'), np.str_('ReadMore')]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>486.09</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>883</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>High-quality non-fiction from ReadMore. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -499,27 +575,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ArtSpace Art 2</t>
+          <t>BeautyCo Fragrance 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SmartLife</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>633.1</v>
+          <t>Fragrance</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BeautyCo</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
-        </is>
-      </c>
+          <t>[np.str_('Beauty'), np.str_('Fragrance'), np.str_('BeautyCo')]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>484.49</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>576</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>High-quality fragrance from BeautyCo. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -527,27 +634,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SportsFit Electronics 3</t>
+          <t>KitchenPro Gadgets 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>698.79</v>
+          <t>Gadgets</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KitchenPro</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023-05-02</t>
-        </is>
-      </c>
+          <t>[np.str_('Gadgets'), np.str_('Kitchen'), np.str_('KitchenPro')]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>170.06</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>671</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>High-quality gadgets from KitchenPro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -555,27 +693,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BookWorld Kitchen 4</t>
+          <t>InnovateTech Tablets 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>460</v>
+          <t>Tablets</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>InnovateTech</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('InnovateTech'), np.str_('Tablets')]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>90.70999999999999</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>53</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>High-quality tablets from InnovateTech. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -583,27 +752,58 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GourmetKit Music 5</t>
+          <t>TechPro Headphones 5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>631.28</v>
+          <t>Headphones</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TechPro</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('TechPro'), np.str_('Headphones')]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>869.59</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>High-quality headphones from TechPro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -611,25 +811,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HomeEssentials Beauty 6</t>
+          <t>AthletePro Accessories 6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>588.47</v>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AthletePro</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>[np.str_('Purple'), np.str_('AthletePro'), np.str_('Accessories'), np.str_('Sports'), np.str_('S')]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>868.36</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>259</v>
+      </c>
+      <c r="K7" t="n">
+        <v>97</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>High-quality accessories from AthletePro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -639,27 +878,58 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HomeEssentials Kitchen 7</t>
+          <t>PurePamper Makeup 7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MusicHub</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>902.15</v>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PurePamper</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
-        </is>
-      </c>
+          <t>[np.str_('Beauty'), np.str_('PurePamper'), np.str_('Makeup')]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>195</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>High-quality makeup from PurePamper. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -667,27 +937,58 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GourmetKit Travel 8</t>
+          <t>CulinaryPlus Cookware 8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TechPro</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>54.99</v>
+          <t>Cookware</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CulinaryPlus</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
-        </is>
-      </c>
+          <t>[np.str_('Cookware'), np.str_('Kitchen'), np.str_('CulinaryPlus')]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>735.78</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>109</v>
+      </c>
+      <c r="K9" t="n">
+        <v>93</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>High-quality cookware from CulinaryPlus. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -695,27 +996,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SportsFit Electronics 9</t>
+          <t>LuxLiving Lighting 9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>288.15</v>
+          <t>Lighting</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LuxLiving</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('LuxLiving'), np.str_('Lighting')]</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>189.17</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>562</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>High-quality lighting from LuxLiving. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -723,25 +1055,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashionista Kitchen 10</t>
+          <t>SportsFit Nutrition 10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>950.91</v>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SportsFit</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>[np.str_('Gold'), np.str_('Nutrition'), np.str_('Sports'), np.str_('SportsFit'), np.str_('S')]</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>104.31</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>High-quality nutrition from SportsFit. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>XL</t>
         </is>
       </c>
     </row>
@@ -751,27 +1122,58 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TravelGear Beauty 11</t>
+          <t>PurePamper Skincare 11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TechPro</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>891.36</v>
+          <t>Skincare</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PurePamper</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
-        </is>
-      </c>
+          <t>[np.str_('Beauty'), np.str_('PurePamper'), np.str_('Skincare')]</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>139.56</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>High-quality skincare from PurePamper. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -779,25 +1181,64 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SportsFit Music 12</t>
+          <t>VogueLine Shoes 12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Fashion</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BookWorld</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>461.1</v>
+          <t>Shoes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VogueLine</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>[np.str_('VogueLine'), np.str_('Shoes'), np.str_('Brown'), np.str_('L'), np.str_('Fashion')]</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>830.59</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>785</v>
+      </c>
+      <c r="K13" t="n">
+        <v>42</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>High-quality shoes from VogueLine. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>XXL</t>
         </is>
       </c>
     </row>
@@ -807,7 +1248,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fashionista Electronics 13</t>
+          <t>SportsFit Accessories 13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -817,15 +1258,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ArtSpace</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>623.9299999999999</v>
+          <t>Accessories</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SportsFit</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>[np.str_('Blue'), np.str_('Accessories'), np.str_('Sports'), np.str_('SportsFit'), np.str_('One Size')]</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>667.17</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>641</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>High-quality accessories from SportsFit. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -835,25 +1315,64 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SportsFit Music 14</t>
+          <t>ChicBoutique Jewelry 14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Fashion</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>284.61</v>
+          <t>Jewelry</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ChicBoutique</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>[np.str_('Jewelry'), np.str_('White'), np.str_('ChicBoutique'), np.str_('XXL'), np.str_('Fashion')]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>291</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>High-quality jewelry from ChicBoutique. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -863,27 +1382,58 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TravelGear Beauty 15</t>
+          <t>LitHub Comics 15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>196.24</v>
+          <t>Comics</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LitHub</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
-        </is>
-      </c>
+          <t>[np.str_('LitHub'), np.str_('Books'), np.str_('Comics')]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>97.67</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>215</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High-quality comics from LitHub. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -891,25 +1441,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GourmetKit Kitchen 16</t>
+          <t>ActiveLife Nutrition 16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>469.06</v>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ActiveLife</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>[np.str_('ActiveLife'), np.str_('Purple'), np.str_('Nutrition'), np.str_('Sports'), np.str_('M')]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>806</v>
+      </c>
+      <c r="K17" t="n">
+        <v>56</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>High-quality nutrition from ActiveLife. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>One Size</t>
         </is>
       </c>
     </row>
@@ -919,25 +1508,64 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fashionista Home 17</t>
+          <t>ChicBoutique Shoes 17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Fashion</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>359.82</v>
+          <t>Shoes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ChicBoutique</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>[np.str_('Red'), np.str_('Shoes'), np.str_('ChicBoutique'), np.str_('L'), np.str_('Fashion')]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>134.48</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>345</v>
+      </c>
+      <c r="K18" t="n">
+        <v>49</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High-quality shoes from ChicBoutique. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -947,27 +1575,58 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fashionista Beauty 18</t>
+          <t>CulinaryPlus Appliances 18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>587.8200000000001</v>
+          <t>Appliances</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CulinaryPlus</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
+          <t>[np.str_('Appliances'), np.str_('Kitchen'), np.str_('CulinaryPlus')]</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>449.31</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>184</v>
+      </c>
+      <c r="K19" t="n">
+        <v>33</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>High-quality appliances from CulinaryPlus. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -975,27 +1634,58 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TravelGear Fashion 19</t>
+          <t>LuxeBeauty Makeup 19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Beauty</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BookWorld</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>86.95999999999999</v>
+          <t>Makeup</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LuxeBeauty</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
+          <t>[np.str_('Beauty'), np.str_('LuxeBeauty'), np.str_('Makeup')]</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>686.42</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>547</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>High-quality makeup from LuxeBeauty. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1003,27 +1693,58 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TravelGear Electronics 20</t>
+          <t>InnovateTech Headphones 20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TravelGear</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>974.65</v>
+          <t>Headphones</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>InnovateTech</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('InnovateTech'), np.str_('Headphones')]</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>931.64</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>High-quality headphones from InnovateTech. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1031,27 +1752,58 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MusicHub Kitchen 21</t>
+          <t>LitHub Comics 21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TravelGear</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>986.35</v>
+          <t>Comics</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LitHub</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
-        </is>
-      </c>
+          <t>[np.str_('LitHub'), np.str_('Books'), np.str_('Comics')]</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>581.41</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>713</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>High-quality comics from LitHub. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1059,27 +1811,58 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fashionista Art 22</t>
+          <t>TechPro Smartphones 22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>701.1799999999999</v>
+          <t>Smartphones</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TechPro</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('Smartphones'), np.str_('TechPro')]</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>993.4</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>598</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>High-quality smartphones from TechPro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1087,7 +1870,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BookWorld Home 23</t>
+          <t>StyleHub Bags 23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1097,15 +1880,54 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BookWorld</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>540.74</v>
+          <t>Bags</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>StyleHub</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>[np.str_('Red'), np.str_('StyleHub'), np.str_('Bags'), np.str_('XXL'), np.str_('Fashion')]</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>926.42</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>603</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>High-quality bags from StyleHub. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>XL</t>
         </is>
       </c>
     </row>
@@ -1115,25 +1937,64 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TechPro Sports 24</t>
+          <t>Fashionista Clothing 24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Fashion</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>316.43</v>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fashionista</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>[np.str_('Fashionista'), np.str_('Blue'), np.str_('Clothing'), np.str_('One Size'), np.str_('Fashion')]</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>633.91</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>926</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>High-quality clothing from Fashionista. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>XS</t>
         </is>
       </c>
     </row>
@@ -1143,27 +2004,58 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MusicHub Home 25</t>
+          <t>InnovateTech Smartphones 25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SmartLife</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>815.66</v>
+          <t>Smartphones</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>InnovateTech</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('InnovateTech'), np.str_('Smartphones')]</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>235</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>977</v>
+      </c>
+      <c r="K26" t="n">
+        <v>77</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>High-quality smartphones from InnovateTech. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1171,7 +2063,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HomeEssentials Electronics 26</t>
+          <t>ChefChoice Cookware 26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1181,17 +2073,48 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TravelGear</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>687.88</v>
+          <t>Cookware</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ChefChoice</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
+          <t>[np.str_('ChefChoice'), np.str_('Cookware'), np.str_('Kitchen')]</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>484.39</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>674</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High-quality cookware from ChefChoice. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1199,27 +2122,58 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TechPro Fashion 27</t>
+          <t>NestWell Storage 27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>170.99</v>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NestWell</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('Storage'), np.str_('NestWell')]</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>481.93</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c r="K28" t="n">
+        <v>45</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>High-quality storage from NestWell. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1227,25 +2181,64 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SportsFit Fashion 28</t>
+          <t>PeakPerform Footwear 28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MusicHub</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>911.8200000000001</v>
+          <t>Footwear</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PeakPerform</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-08-17</t>
+          <t>[np.str_('Footwear'), np.str_('Blue'), np.str_('Sports'), np.str_('PeakPerform'), np.str_('One Size')]</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>436.55</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>133</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>High-quality footwear from PeakPerform. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>One Size</t>
         </is>
       </c>
     </row>
@@ -1255,25 +2248,64 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TechPro Electronics 29</t>
+          <t>FitZone Nutrition 29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ArtSpace</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>824.3099999999999</v>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FitZone</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>[np.str_('Red'), np.str_('FitZone'), np.str_('Nutrition'), np.str_('Sports'), np.str_('M')]</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>110.41</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>382</v>
+      </c>
+      <c r="K30" t="n">
+        <v>51</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>High-quality nutrition from FitZone. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1283,25 +2315,64 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MusicHub Beauty 30</t>
+          <t>ActiveLife Apparel 30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BookWorld</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>950.3</v>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ActiveLife</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>[np.str_('ActiveLife'), np.str_('XL'), np.str_('Black'), np.str_('Apparel'), np.str_('Sports')]</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>419.41</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>272</v>
+      </c>
+      <c r="K31" t="n">
+        <v>94</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>High-quality apparel from ActiveLife. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>One Size</t>
         </is>
       </c>
     </row>
@@ -1311,27 +2382,58 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SmartLife Fashion 31</t>
+          <t>ChefChoice Appliances 31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TechPro</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>728.46</v>
+          <t>Appliances</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ChefChoice</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
+          <t>[np.str_('ChefChoice'), np.str_('Appliances'), np.str_('Kitchen')]</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>193.38</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>461</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>High-quality appliances from ChefChoice. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1339,25 +2441,64 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SmartLife Fashion 32</t>
+          <t>ActiveLife Nutrition 32</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>617.28</v>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ActiveLife</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>[np.str_('ActiveLife'), np.str_('Nutrition'), np.str_('Sports'), np.str_('Green'), np.str_('XXL')]</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>821</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>35</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High-quality nutrition from ActiveLife. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1367,27 +2508,58 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BookWorld Electronics 33</t>
+          <t>SmartLife Cameras 33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ArtSpace</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>424.06</v>
+          <t>Cameras</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SmartLife</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('SmartLife'), np.str_('Cameras')]</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>901.02</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>868</v>
+      </c>
+      <c r="K34" t="n">
+        <v>36</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>High-quality cameras from SmartLife. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1395,27 +2567,58 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TravelGear Art 34</t>
+          <t>NestWell Bedding 34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TechPro</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>933.4</v>
+          <t>Bedding</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NestWell</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('Bedding'), np.str_('NestWell')]</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>429.5</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>924</v>
+      </c>
+      <c r="K35" t="n">
+        <v>35</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>High-quality bedding from NestWell. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1423,27 +2626,58 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TravelGear Beauty 35</t>
+          <t>HomeEssentials Storage 35</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ArtSpace</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>867.4</v>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HomeEssentials</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('Storage'), np.str_('HomeEssentials')]</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>739.51</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>670</v>
+      </c>
+      <c r="K36" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>High-quality storage from HomeEssentials. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1451,27 +2685,58 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TravelGear Home 36</t>
+          <t>CookMaster Utensils 36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MusicHub</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>54.77</v>
+          <t>Utensils</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CookMaster</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
-        </is>
-      </c>
+          <t>[np.str_('CookMaster'), np.str_('Utensils'), np.str_('Kitchen')]</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>214.12</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>599</v>
+      </c>
+      <c r="K37" t="n">
+        <v>76</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>High-quality utensils from CookMaster. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1479,27 +2744,58 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HomeEssentials Travel 37</t>
+          <t>SmartLife Smartphones 37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kitchen</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TechPro</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>36.1</v>
+          <t>Smartphones</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SmartLife</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023-09-10</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('Smartphones'), np.str_('SmartLife')]</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>281.79</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>844</v>
+      </c>
+      <c r="K38" t="n">
+        <v>41</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>High-quality smartphones from SmartLife. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1507,27 +2803,58 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BookWorld Sports 38</t>
+          <t>GourmetKit Appliances 38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fashion</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Appliances</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>GourmetKit</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>382.7</v>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
-        </is>
-      </c>
+          <t>[np.str_('GourmetKit'), np.str_('Appliances'), np.str_('Kitchen')]</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>540</v>
+      </c>
+      <c r="K39" t="n">
+        <v>67</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>High-quality appliances from GourmetKit. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1535,27 +2862,58 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TravelGear Kitchen 39</t>
+          <t>LitHub Non-Fiction 39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>812.45</v>
+          <t>Non-Fiction</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>LitHub</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
-        </is>
-      </c>
+          <t>[np.str_('LitHub'), np.str_('Books'), np.str_('Non-Fiction')]</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>685</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>High-quality non-fiction from LitHub. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1563,27 +2921,58 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SmartLife Art 40</t>
+          <t>TechPro Tablets 40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>987.4</v>
+          <t>Tablets</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TechPro</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
-        </is>
-      </c>
+          <t>[np.str_('Electronics'), np.str_('TechPro'), np.str_('Tablets')]</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>620.98</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>651</v>
+      </c>
+      <c r="K41" t="n">
+        <v>59</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>High-quality tablets from TechPro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1591,25 +2980,64 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fashionista Travel 41</t>
+          <t>FitZone Footwear 41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TravelGear</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>158.91</v>
+          <t>Footwear</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FitZone</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>[np.str_('Footwear'), np.str_('Purple'), np.str_('FitZone'), np.str_('Sports'), np.str_('XXL')]</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>596.88</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>390</v>
+      </c>
+      <c r="K42" t="n">
+        <v>57</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>High-quality footwear from FitZone. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>XXL</t>
         </is>
       </c>
     </row>
@@ -1619,27 +3047,58 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SportsFit Travel 42</t>
+          <t>LuxLiving Lighting 42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>598.1900000000001</v>
+          <t>Lighting</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>LuxLiving</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('LuxLiving'), np.str_('Lighting')]</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>369.31</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>807</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>High-quality lighting from LuxLiving. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1647,25 +3106,64 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fashionista Beauty 43</t>
+          <t>AthletePro Apparel 43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GourmetKit</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>387.08</v>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AthletePro</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>[np.str_('XL'), np.str_('Blue'), np.str_('AthletePro'), np.str_('Apparel'), np.str_('Sports')]</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>638.61</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>217</v>
+      </c>
+      <c r="K44" t="n">
+        <v>61</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>High-quality apparel from AthletePro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>One Size</t>
         </is>
       </c>
     </row>
@@ -1675,25 +3173,64 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SportsFit Travel 44</t>
+          <t>AthletePro Equipment 44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>970.22</v>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AthletePro</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>[np.str_('Purple'), np.str_('AthletePro'), np.str_('Sports'), np.str_('Equipment'), np.str_('L')]</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>480.14</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>357</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>High-quality equipment from AthletePro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>XS</t>
         </is>
       </c>
     </row>
@@ -1703,7 +3240,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MusicHub Fashion 45</t>
+          <t>StoryVerse Comics 45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1713,17 +3250,48 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SportsFit</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>843.7</v>
+          <t>Comics</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>StoryVerse</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
+          <t>[np.str_('Books'), np.str_('Comics'), np.str_('StoryVerse')]</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>627.35</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Like New</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>809</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>High-quality comics from StoryVerse. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1731,27 +3299,58 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TechPro Fashion 46</t>
+          <t>ReadMore Children 46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>839.95</v>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ReadMore</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
-        </is>
-      </c>
+          <t>[np.str_('Children'), np.str_('Books'), np.str_('ReadMore')]</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>72.48</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>123</v>
+      </c>
+      <c r="K47" t="n">
+        <v>65</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>High-quality children from ReadMore. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1759,27 +3358,58 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fashionista Home 47</t>
+          <t>KitchenPro Cookware 47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>474.01</v>
+          <t>Cookware</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>KitchenPro</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
-        </is>
-      </c>
+          <t>[np.str_('Cookware'), np.str_('Kitchen'), np.str_('KitchenPro')]</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>246.66</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>189</v>
+      </c>
+      <c r="K48" t="n">
+        <v>61</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>High-quality cookware from KitchenPro. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1787,27 +3417,58 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TechPro Music 48</t>
+          <t>LuxLiving Lighting 48</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Beauty</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HomeEssentials</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>420.67</v>
+          <t>Lighting</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>LuxLiving</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('LuxLiving'), np.str_('Lighting')]</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>520.52</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>152</v>
+      </c>
+      <c r="K49" t="n">
+        <v>85</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>High-quality lighting from LuxLiving. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1815,27 +3476,58 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MusicHub Music 49</t>
+          <t>ChefChoice Storage 49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fashionista</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>280.67</v>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ChefChoice</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
-        </is>
-      </c>
+          <t>[np.str_('Storage'), np.str_('ChefChoice'), np.str_('Kitchen')]</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>603</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>High-quality storage from ChefChoice. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1843,7 +3535,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SportsFit Electronics 50</t>
+          <t>NestWell Bedding 50</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1853,17 +3545,48 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ArtSpace</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>65.81</v>
+          <t>Bedding</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NestWell</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
-        </is>
-      </c>
+          <t>[np.str_('Home'), np.str_('Bedding'), np.str_('NestWell')]</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>820.55</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>587</v>
+      </c>
+      <c r="K51" t="n">
+        <v>90</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>High-quality bedding from NestWell. Perfect for everyday use.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
